--- a/excels/excel-50_typeStatisticsByPercentageSummarized.csv.xlsx
+++ b/excels/excel-50_typeStatisticsByPercentageSummarized.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E84B591D-55EE-49BE-8459-3A64B49D7B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D84DBA-6015-49FE-845B-7F047B77C193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2060,7 +2060,10 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2071,11 +2074,17 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3398,7 +3407,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3409,11 +3418,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6086,9 +6095,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6099,15 +6106,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7436,9 +7439,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7449,15 +7450,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -8111,8 +8108,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8124,14 +8122,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -8786,9 +8786,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8800,16 +8800,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -9464,10 +9464,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9478,17 +9475,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -10142,9 +10133,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -10156,16 +10147,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -12176,10 +12167,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -12190,17 +12178,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -12854,8 +12836,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -12867,14 +12850,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -13529,9 +13514,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13542,15 +13525,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -14204,8 +14183,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -14217,14 +14197,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -15634,10 +15616,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15648,7 +15630,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291961" cy="6073806"/>
+    <xdr:ext cx="9287774" cy="6052868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15680,7 +15662,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15694,22 +15676,22 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="E7E6F7"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C4A69D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FADF63"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="EA526F"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="20A39E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="9E480E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -15973,10 +15955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:V102"/>
     </sheetView>
   </sheetViews>

--- a/excels/excel-50_typeStatisticsByPercentageSummarized.csv.xlsx
+++ b/excels/excel-50_typeStatisticsByPercentageSummarized.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7E72C-44C2-459A-828A-0CBCE27F8C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD9914-2A7C-4BDD-BCFB-6FBECD510E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,16 +29,10 @@
     <t>low-Choice</t>
   </si>
   <si>
-    <t>median-Choice</t>
-  </si>
-  <si>
     <t>high-Choice</t>
   </si>
   <si>
     <t>low-Entry</t>
-  </si>
-  <si>
-    <t>median-Entry</t>
   </si>
   <si>
     <t>high-Entry</t>
@@ -47,16 +41,10 @@
     <t>low-Exit</t>
   </si>
   <si>
-    <t>median-Exit</t>
-  </si>
-  <si>
     <t>high-Exit</t>
   </si>
   <si>
     <t>low-Region</t>
-  </si>
-  <si>
-    <t>median-Region</t>
   </si>
   <si>
     <t>high-Region</t>
@@ -65,16 +53,10 @@
     <t>low-State</t>
   </si>
   <si>
-    <t>median-State</t>
-  </si>
-  <si>
     <t>high-State</t>
   </si>
   <si>
     <t>low-Statechart</t>
-  </si>
-  <si>
-    <t>median-Statechart</t>
   </si>
   <si>
     <t>high-Statechart</t>
@@ -83,10 +65,28 @@
     <t>low-Transition</t>
   </si>
   <si>
-    <t>median-Transition</t>
+    <t>high-Transition</t>
   </si>
   <si>
-    <t>high-Transition</t>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Statechart</t>
+  </si>
+  <si>
+    <t>Transition</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Choice</c:v>
+                  <c:v>Choice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1334,7 +1334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Entry</c:v>
+                  <c:v>Entry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2003,7 +2003,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Exit</c:v>
+                  <c:v>Exit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2678,7 +2678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Region</c:v>
+                  <c:v>Region</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3347,7 +3347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-State</c:v>
+                  <c:v>State</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4016,7 +4016,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Statechart</c:v>
+                  <c:v>Statechart</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4685,7 +4685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median-Transition</c:v>
+                  <c:v>Transition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6052,7 +6052,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$D$1</c15:sqref>
@@ -6102,7 +6102,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -6420,7 +6420,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$D$2:$D$102</c15:sqref>
@@ -6737,7 +6737,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -6750,7 +6750,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$E$1</c15:sqref>
@@ -6791,7 +6791,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -7109,7 +7109,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$E$2:$E$102</c15:sqref>
@@ -7426,7 +7426,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -7439,7 +7439,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$G$1</c15:sqref>
@@ -7480,7 +7480,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -7798,7 +7798,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$G$2:$G$102</c15:sqref>
@@ -8115,7 +8115,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -8128,7 +8128,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$H$1</c15:sqref>
@@ -8175,7 +8175,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -8493,7 +8493,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$H$2:$H$102</c15:sqref>
@@ -8810,7 +8810,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -8823,7 +8823,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$J$1</c15:sqref>
@@ -8864,7 +8864,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -9182,7 +9182,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$J$2:$J$102</c15:sqref>
@@ -9499,7 +9499,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -9512,7 +9512,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$K$1</c15:sqref>
@@ -9559,7 +9559,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -9877,7 +9877,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$K$2:$K$102</c15:sqref>
@@ -10194,7 +10194,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -10207,7 +10207,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$M$1</c15:sqref>
@@ -10257,7 +10257,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -10575,7 +10575,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$M$2:$M$102</c15:sqref>
@@ -10892,7 +10892,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -10905,7 +10905,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$N$1</c15:sqref>
@@ -10955,7 +10955,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -11273,7 +11273,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$N$2:$N$102</c15:sqref>
@@ -11590,7 +11590,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -11603,7 +11603,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$P$1</c15:sqref>
@@ -11653,7 +11653,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -11971,7 +11971,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$P$2:$P$102</c15:sqref>
@@ -12288,7 +12288,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -12301,7 +12301,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$Q$1</c15:sqref>
@@ -12351,7 +12351,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -12669,7 +12669,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$Q$2:$Q$102</c15:sqref>
@@ -12986,7 +12986,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -12999,7 +12999,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$S$1</c15:sqref>
@@ -13040,7 +13040,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -13358,7 +13358,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$S$2:$S$102</c15:sqref>
@@ -13675,7 +13675,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -13688,7 +13688,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$T$1</c15:sqref>
@@ -13738,7 +13738,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -14056,7 +14056,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$T$2:$T$102</c15:sqref>
@@ -14373,7 +14373,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -14386,7 +14386,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$V$1</c15:sqref>
@@ -14436,7 +14436,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$A$2:$A$102</c15:sqref>
@@ -14754,7 +14754,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'50_typeStatisticsByPercentageSu'!$V$2:$V$102</c15:sqref>
@@ -15071,7 +15071,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-3BF9-407C-B20D-98F55849F19E}"/>
                   </c:ext>
@@ -15103,6 +15103,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>lebontás százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15125,7 +15180,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15166,6 +15221,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0"/>
+                  <a:t>típus százalékos aránya</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15188,7 +15298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15230,7 +15340,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -16185,7 +16295,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V102"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16198,64 +16308,64 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
